--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2576769.377159103</v>
+        <v>-2579680.128177143</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>221.0683522365397</v>
+        <v>201.278077069693</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>117.004733408289</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>153.7714094203874</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.9858676618298</v>
+        <v>250.9858676618297</v>
       </c>
       <c r="V2" t="n">
-        <v>250.9858676618298</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>250.9858676618298</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>250.9858676618297</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>99.70692894066508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>44.73321547072647</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>19.61575307735293</v>
       </c>
       <c r="S3" t="n">
-        <v>94.89765030172431</v>
+        <v>39.4367849481112</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>250.9858676618298</v>
+        <v>250.9858676618297</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9034249120584</v>
       </c>
       <c r="H4" t="n">
-        <v>73.4292617922149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.7447466664173</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>16.46908075616487</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>128.3929887235663</v>
       </c>
       <c r="S4" t="n">
         <v>205.0634900937945</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>6.004770869877764</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>59.80127191868264</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>263.7138800015061</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>109.3170492634406</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>26.88549946971374</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.0804243420299</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>165.9023602076845</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>179.9845854067541</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>200.716228680337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,7 +1227,7 @@
         <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>26.17372043046393</v>
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.1675395068</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>30.98590347459324</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>55.61077631092882</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>90.59276389042472</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>28.23631843387907</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>133.3133845470781</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1813,13 +1813,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>105.6507867899569</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.14989839348819</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2084,10 +2084,10 @@
         <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T20" t="n">
         <v>199.022230457616</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.2445652598088</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.022230457616</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261725</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545309</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652575</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808189</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541838</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652575</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808383</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541836</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652502</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.239490800229</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652575</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002295</v>
       </c>
       <c r="H43" t="n">
-        <v>116.010065354184</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>243.380235308441</v>
+        <v>341.5766577745443</v>
       </c>
       <c r="C2" t="n">
-        <v>20.07886941294638</v>
+        <v>138.2654688152585</v>
       </c>
       <c r="D2" t="n">
-        <v>20.07886941294638</v>
+        <v>138.2654688152585</v>
       </c>
       <c r="E2" t="n">
-        <v>20.07886941294638</v>
+        <v>138.2654688152585</v>
       </c>
       <c r="F2" t="n">
-        <v>20.07886941294638</v>
+        <v>138.2654688152585</v>
       </c>
       <c r="G2" t="n">
-        <v>20.07886941294638</v>
+        <v>138.2654688152585</v>
       </c>
       <c r="H2" t="n">
-        <v>20.07886941294638</v>
+        <v>138.2654688152585</v>
       </c>
       <c r="I2" t="n">
         <v>20.07886941294638</v>
@@ -4334,19 +4334,19 @@
         <v>131.9979271978299</v>
       </c>
       <c r="L2" t="n">
-        <v>277.3699294102315</v>
+        <v>277.3699294102314</v>
       </c>
       <c r="M2" t="n">
-        <v>470.7937295017252</v>
+        <v>470.793729501725</v>
       </c>
       <c r="N2" t="n">
-        <v>671.9611372758897</v>
+        <v>671.9611372758894</v>
       </c>
       <c r="O2" t="n">
-        <v>848.5825547534994</v>
+        <v>848.5825547534993</v>
       </c>
       <c r="P2" t="n">
-        <v>964.8238474307723</v>
+        <v>964.8238474307722</v>
       </c>
       <c r="Q2" t="n">
         <v>1003.943470647319</v>
@@ -4355,25 +4355,25 @@
         <v>1003.943470647319</v>
       </c>
       <c r="S2" t="n">
-        <v>1003.943470647319</v>
+        <v>848.6188146671296</v>
       </c>
       <c r="T2" t="n">
-        <v>1003.943470647319</v>
+        <v>848.6188146671296</v>
       </c>
       <c r="U2" t="n">
-        <v>750.4223922010265</v>
+        <v>595.097736220837</v>
       </c>
       <c r="V2" t="n">
-        <v>496.9013137547337</v>
+        <v>595.097736220837</v>
       </c>
       <c r="W2" t="n">
-        <v>243.380235308441</v>
+        <v>595.097736220837</v>
       </c>
       <c r="X2" t="n">
-        <v>243.380235308441</v>
+        <v>595.097736220837</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.380235308441</v>
+        <v>341.5766577745443</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>258.2134306627215</v>
+        <v>462.6359518002239</v>
       </c>
       <c r="C3" t="n">
-        <v>258.2134306627215</v>
+        <v>462.6359518002239</v>
       </c>
       <c r="D3" t="n">
-        <v>258.2134306627215</v>
+        <v>462.6359518002239</v>
       </c>
       <c r="E3" t="n">
-        <v>258.2134306627215</v>
+        <v>303.3984967947684</v>
       </c>
       <c r="F3" t="n">
-        <v>258.2134306627215</v>
+        <v>303.3984967947684</v>
       </c>
       <c r="G3" t="n">
-        <v>120.7929390499818</v>
+        <v>165.9780051820288</v>
       </c>
       <c r="H3" t="n">
-        <v>20.07886941294638</v>
+        <v>65.26393554499332</v>
       </c>
       <c r="I3" t="n">
         <v>20.07886941294638</v>
       </c>
       <c r="J3" t="n">
-        <v>100.3313542384275</v>
+        <v>20.07886941294638</v>
       </c>
       <c r="K3" t="n">
-        <v>171.2478592497057</v>
+        <v>171.2478592497058</v>
       </c>
       <c r="L3" t="n">
-        <v>312.9263930328124</v>
+        <v>312.9263930328125</v>
       </c>
       <c r="M3" t="n">
         <v>497.6154275852444</v>
@@ -4425,34 +4425,34 @@
         <v>865.9886806875332</v>
       </c>
       <c r="P3" t="n">
-        <v>978.5909991640618</v>
+        <v>978.5909991640617</v>
       </c>
       <c r="Q3" t="n">
         <v>1003.943470647319</v>
       </c>
       <c r="R3" t="n">
-        <v>1003.943470647319</v>
+        <v>984.1295786499927</v>
       </c>
       <c r="S3" t="n">
-        <v>908.087258221335</v>
+        <v>944.2944423387693</v>
       </c>
       <c r="T3" t="n">
-        <v>908.087258221335</v>
+        <v>944.2944423387693</v>
       </c>
       <c r="U3" t="n">
-        <v>679.9498461290823</v>
+        <v>716.1570302465166</v>
       </c>
       <c r="V3" t="n">
-        <v>679.9498461290823</v>
+        <v>716.1570302465166</v>
       </c>
       <c r="W3" t="n">
-        <v>426.4287676827896</v>
+        <v>462.6359518002239</v>
       </c>
       <c r="X3" t="n">
-        <v>426.4287676827896</v>
+        <v>462.6359518002239</v>
       </c>
       <c r="Y3" t="n">
-        <v>426.4287676827896</v>
+        <v>462.6359518002239</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>387.1706164404818</v>
+        <v>479.4048546178484</v>
       </c>
       <c r="C4" t="n">
-        <v>218.2344335125749</v>
+        <v>479.4048546178484</v>
       </c>
       <c r="D4" t="n">
-        <v>218.2344335125749</v>
+        <v>329.2882152055126</v>
       </c>
       <c r="E4" t="n">
-        <v>218.2344335125749</v>
+        <v>329.2882152055126</v>
       </c>
       <c r="F4" t="n">
-        <v>218.2344335125749</v>
+        <v>329.2882152055126</v>
       </c>
       <c r="G4" t="n">
-        <v>218.2344335125749</v>
+        <v>160.6988971125243</v>
       </c>
       <c r="H4" t="n">
-        <v>144.0634620052871</v>
+        <v>160.6988971125243</v>
       </c>
       <c r="I4" t="n">
-        <v>20.07886941294638</v>
+        <v>36.71430452018362</v>
       </c>
       <c r="J4" t="n">
         <v>20.07886941294638</v>
       </c>
       <c r="K4" t="n">
-        <v>123.1225849302958</v>
+        <v>96.0939819091586</v>
       </c>
       <c r="L4" t="n">
-        <v>310.5094986858973</v>
+        <v>283.4808956647601</v>
       </c>
       <c r="M4" t="n">
-        <v>518.4718487516576</v>
+        <v>491.4432457305203</v>
       </c>
       <c r="N4" t="n">
-        <v>726.9239353734147</v>
+        <v>699.8953323522774</v>
       </c>
       <c r="O4" t="n">
-        <v>903.4468808020141</v>
+        <v>876.4182777808768</v>
       </c>
       <c r="P4" t="n">
         <v>1003.943470647319</v>
@@ -4510,28 +4510,28 @@
         <v>1003.943470647319</v>
       </c>
       <c r="R4" t="n">
-        <v>1003.943470647319</v>
+        <v>874.253583047757</v>
       </c>
       <c r="S4" t="n">
-        <v>796.8086321687389</v>
+        <v>667.1187445691768</v>
       </c>
       <c r="T4" t="n">
-        <v>796.8086321687389</v>
+        <v>667.1187445691768</v>
       </c>
       <c r="U4" t="n">
-        <v>796.8086321687389</v>
+        <v>667.1187445691768</v>
       </c>
       <c r="V4" t="n">
-        <v>796.8086321687389</v>
+        <v>667.1187445691768</v>
       </c>
       <c r="W4" t="n">
-        <v>796.8086321687389</v>
+        <v>667.1187445691768</v>
       </c>
       <c r="X4" t="n">
-        <v>568.8190812707215</v>
+        <v>661.0533194480881</v>
       </c>
       <c r="Y4" t="n">
-        <v>568.8190812707215</v>
+        <v>661.0533194480881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276842</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="C5" t="n">
         <v>41.00642392276842</v>
@@ -4553,7 +4553,7 @@
         <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356494</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4565,52 +4565,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
         <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946886</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946886</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>840.1393936243021</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>840.1393936243021</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W5" t="n">
-        <v>840.1393936243021</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X5" t="n">
-        <v>573.7617370571243</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.3840804899463</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>651.4880747542136</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>477.0350454730866</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>449.8779753016586</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>449.8779753016586</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776108</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>66.42278870159443</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>141.1068094710485</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>287.8512331313451</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>478.4519222278687</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560895</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742817</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W6" t="n">
-        <v>819.7034117742817</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X6" t="n">
-        <v>819.7034117742817</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y6" t="n">
-        <v>819.7034117742817</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>466.9722618134659</v>
+        <v>484.8363344083309</v>
       </c>
       <c r="C7" t="n">
-        <v>466.9722618134659</v>
+        <v>315.900151480424</v>
       </c>
       <c r="D7" t="n">
-        <v>466.9722618134659</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E7" t="n">
-        <v>466.9722618134659</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F7" t="n">
-        <v>466.9722618134659</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>298.4029011684693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
         <v>21.09711040012049</v>
@@ -4726,49 +4726,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227042</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075538</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640386</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>829.3864837640386</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>829.3864837640386</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>829.3864837640386</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>601.3969328660213</v>
+        <v>887.2773783821008</v>
       </c>
       <c r="Y7" t="n">
-        <v>601.3969328660213</v>
+        <v>666.4847992385706</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1965.716161570979</v>
+        <v>244.1079500654591</v>
       </c>
       <c r="C8" t="n">
-        <v>1596.753644630567</v>
+        <v>244.1079500654591</v>
       </c>
       <c r="D8" t="n">
-        <v>1238.487946023816</v>
+        <v>244.1079500654591</v>
       </c>
       <c r="E8" t="n">
-        <v>852.6996934255721</v>
+        <v>244.1079500654591</v>
       </c>
       <c r="F8" t="n">
-        <v>441.7137886359646</v>
+        <v>237.1624493162556</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>225.171808060067</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578729</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
         <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545595</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904652</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904652</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="V8" t="n">
-        <v>1965.716161570979</v>
+        <v>1373.615777375507</v>
       </c>
       <c r="W8" t="n">
-        <v>1965.716161570979</v>
+        <v>1020.847122105393</v>
       </c>
       <c r="X8" t="n">
-        <v>1965.716161570979</v>
+        <v>1020.847122105393</v>
       </c>
       <c r="Y8" t="n">
-        <v>1965.716161570979</v>
+        <v>630.7077901295809</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>772.0606556145503</v>
+        <v>835.8427436888391</v>
       </c>
       <c r="C9" t="n">
-        <v>597.6076263334234</v>
+        <v>661.3897144077121</v>
       </c>
       <c r="D9" t="n">
-        <v>448.6732166721721</v>
+        <v>512.4553047464608</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6732166721721</v>
+        <v>353.2178497410052</v>
       </c>
       <c r="F9" t="n">
-        <v>302.138658699057</v>
+        <v>206.6832917678902</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2626649141729</v>
+        <v>69.80729798300612</v>
       </c>
       <c r="H9" t="n">
-        <v>69.80729798300611</v>
+        <v>69.80729798300612</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>214.3836900926279</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>371.4749568374566</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>629.0260923974442</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.719899556346</v>
+        <v>1018.710078441079</v>
       </c>
       <c r="N9" t="n">
-        <v>1508.502423550977</v>
+        <v>1555.403885599981</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.477412699312</v>
+        <v>1846.763131854547</v>
       </c>
       <c r="P9" t="n">
-        <v>2074.985828260213</v>
+        <v>2061.271547415447</v>
       </c>
       <c r="Q9" t="n">
-        <v>2168.459826904652</v>
+        <v>2154.745546059887</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S9" t="n">
-        <v>2032.937059726067</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T9" t="n">
-        <v>1838.226738200043</v>
+        <v>2137.160934506074</v>
       </c>
       <c r="U9" t="n">
-        <v>1610.125148333307</v>
+        <v>1909.059344639338</v>
       </c>
       <c r="V9" t="n">
-        <v>1610.125148333307</v>
+        <v>1673.907236407595</v>
       </c>
       <c r="W9" t="n">
-        <v>1355.887791605105</v>
+        <v>1419.669879679394</v>
       </c>
       <c r="X9" t="n">
-        <v>1148.036291399572</v>
+        <v>1211.818379473861</v>
       </c>
       <c r="Y9" t="n">
-        <v>940.2759926346184</v>
+        <v>1004.058080708907</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>510.3351124607287</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="C10" t="n">
-        <v>341.3989295328219</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="D10" t="n">
-        <v>191.2822901204862</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809305</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
         <v>58.6963092017423</v>
@@ -4984,28 +4984,28 @@
         <v>1486.355378693647</v>
       </c>
       <c r="R10" t="n">
-        <v>1430.182877369477</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S10" t="n">
-        <v>1430.182877369477</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="T10" t="n">
-        <v>1430.182877369477</v>
+        <v>1262.751521386271</v>
       </c>
       <c r="U10" t="n">
-        <v>1430.182877369477</v>
+        <v>973.6252003602942</v>
       </c>
       <c r="V10" t="n">
-        <v>1430.182877369477</v>
+        <v>882.1173580467339</v>
       </c>
       <c r="W10" t="n">
-        <v>1140.765707332516</v>
+        <v>592.7001880097732</v>
       </c>
       <c r="X10" t="n">
-        <v>912.7761564344986</v>
+        <v>592.7001880097732</v>
       </c>
       <c r="Y10" t="n">
-        <v>691.9835772909685</v>
+        <v>371.9076088662431</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,19 +5127,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>264.0500279773688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2245.257395441675</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2025.655930464616</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1736.580703808814</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1481.896215602927</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1192.479045565966</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>964.4894946679489</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5282,13 +5282,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5306,10 +5306,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2273.199413378161</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>2273.199413378161</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.70136564882</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072721</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,28 +5999,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123002</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6124,58 +6124,58 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
         <v>1746.193029533436</v>
@@ -6218,49 +6218,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319336</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656829</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150036</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931274</v>
@@ -6415,19 +6415,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,67 +6595,67 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580112</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.79828551875</v>
@@ -6692,46 +6692,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190824</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319314</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656808</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580106</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384012</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954146</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6886,22 +6886,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6917,49 +6917,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,25 +7117,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7166,37 +7166,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7403,46 +7403,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311316</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,13 +7588,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7628,28 +7628,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,37 +7658,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.07903472198</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>63.28652962351984</v>
+        <v>63.28652962351987</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>85.34091159500582</v>
+        <v>4.277795609671372</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>81.06311598533469</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>79.4421471313827</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8152,10 +8152,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>107.7049441007712</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>60.43714703131822</v>
+        <v>60.43714703131823</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>47.83473395525058</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,13 +8304,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544056</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,13 +8538,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>218.9766784751436</v>
+        <v>196.5729450122531</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>195.8699829942122</v>
       </c>
       <c r="O9" t="n">
-        <v>61.22802312501904</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>144.2045395344679</v>
+        <v>163.9948147013146</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.87822143544847</v>
+        <v>412.8782214354485</v>
       </c>
       <c r="H2" t="n">
-        <v>314.644726814677</v>
+        <v>38.01292297180933</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.4825304253033</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1658239596317824</v>
+        <v>0.1658239596318393</v>
       </c>
       <c r="V2" t="n">
-        <v>76.76639080830512</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>43.48201424278621</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>135.2520709942239</v>
       </c>
     </row>
     <row r="3">
@@ -22644,7 +22644,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44.73321547072646</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22686,7 +22686,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.709115499089819</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>79.1285630008648</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22762,10 +22762,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>117.1847295890522</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>47.71290145456646</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>75.37549921168767</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5874149221285165</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-1.379977626430322e-12</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26317,10 +26317,10 @@
         <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="E2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="F2" t="n">
         <v>20178.66499225016</v>
@@ -26329,16 +26329,16 @@
         <v>20178.66499225016</v>
       </c>
       <c r="H2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225014</v>
       </c>
       <c r="I2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="L2" t="n">
         <v>20526.04424660709</v>
@@ -26347,13 +26347,13 @@
         <v>20526.0442466071</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="O2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>665264.5711858233</v>
+        <v>665264.5711858231</v>
       </c>
       <c r="C3" t="n">
-        <v>14089.18501681313</v>
+        <v>14089.18501681347</v>
       </c>
       <c r="D3" t="n">
-        <v>291724.1809599827</v>
+        <v>291724.1809599825</v>
       </c>
       <c r="E3" t="n">
         <v>601443.2075742652</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.627498467219993e-11</v>
+        <v>1.045106858197999e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>85096.66435214356</v>
+        <v>85096.66435214349</v>
       </c>
       <c r="K3" t="n">
-        <v>3275.783079837809</v>
+        <v>3275.783079837835</v>
       </c>
       <c r="L3" t="n">
-        <v>70460.80690932016</v>
+        <v>70460.80690932028</v>
       </c>
       <c r="M3" t="n">
         <v>157146.380551598</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363173</v>
+        <v>19427.71799363166</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157049.7421696024</v>
+        <v>157049.7421696025</v>
       </c>
       <c r="C4" t="n">
-        <v>251227.3656190199</v>
+        <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>168399.8133469396</v>
+        <v>168399.8133469395</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179348</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179356</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179355</v>
       </c>
       <c r="J4" t="n">
+        <v>19157.89151488696</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19157.89151488701</v>
+      </c>
+      <c r="L4" t="n">
+        <v>19157.89151488699</v>
+      </c>
+      <c r="M4" t="n">
+        <v>19157.89151488701</v>
+      </c>
+      <c r="N4" t="n">
+        <v>19157.89151488699</v>
+      </c>
+      <c r="O4" t="n">
+        <v>19157.89151488698</v>
+      </c>
+      <c r="P4" t="n">
         <v>19157.891514887</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19157.89151488698</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19157.89151488695</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19157.89151488692</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19157.89151488693</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19157.89151488697</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19157.89151488695</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62035.08532495966</v>
+        <v>62035.08532495965</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-868118.9430996671</v>
+        <v>-868548.5019662557</v>
       </c>
       <c r="C6" t="n">
-        <v>-307838.3095934921</v>
+        <v>-307838.3095934924</v>
       </c>
       <c r="D6" t="n">
-        <v>-524797.0319161874</v>
+        <v>-524797.0319161871</v>
       </c>
       <c r="E6" t="n">
-        <v>-693554.1046577157</v>
+        <v>-693588.8425831513</v>
       </c>
       <c r="F6" t="n">
-        <v>-92110.89708345047</v>
+        <v>-92145.63500888608</v>
       </c>
       <c r="G6" t="n">
-        <v>-92110.89708345057</v>
+        <v>-92145.63500888633</v>
       </c>
       <c r="H6" t="n">
-        <v>-92110.89708345053</v>
+        <v>-92145.63500888625</v>
       </c>
       <c r="I6" t="n">
-        <v>-92110.8970834505</v>
+        <v>-92145.63500888622</v>
       </c>
       <c r="J6" t="n">
-        <v>-186892.6274743389</v>
+        <v>-186892.6274743387</v>
       </c>
       <c r="K6" t="n">
-        <v>-105071.7462020331</v>
+        <v>-105071.7462020332</v>
       </c>
       <c r="L6" t="n">
-        <v>-172256.7700315155</v>
+        <v>-172256.7700315156</v>
       </c>
       <c r="M6" t="n">
-        <v>-258942.3436737932</v>
+        <v>-258942.3436737933</v>
       </c>
       <c r="N6" t="n">
-        <v>-101795.9631221952</v>
+        <v>-101795.9631221953</v>
       </c>
       <c r="O6" t="n">
-        <v>-121223.681115827</v>
+        <v>-121223.6811158269</v>
       </c>
       <c r="P6" t="n">
         <v>-101795.9631221953</v>
@@ -26698,31 +26698,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>603.0983748220373</v>
+        <v>603.0983748220372</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250.9858676618298</v>
+        <v>250.9858676618297</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261631</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,28 +26808,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>1.306383572747498e-13</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920396</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.314504061156185e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203958</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>603.0983748220373</v>
+        <v>603.0983748220372</v>
       </c>
       <c r="C3" t="n">
-        <v>10.95663894744075</v>
+        <v>10.95663894744109</v>
       </c>
       <c r="D3" t="n">
-        <v>239.6556507682061</v>
+        <v>239.6556507682059</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039896</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250.9858676618298</v>
+        <v>250.9858676618297</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7280123396763</v>
+        <v>12.7280123396764</v>
       </c>
       <c r="D4" t="n">
-        <v>278.401076724657</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>250.9858676618298</v>
       </c>
       <c r="K4" t="n">
-        <v>12.7280123396763</v>
+        <v>12.7280123396764</v>
       </c>
       <c r="L4" t="n">
-        <v>278.401076724657</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>1.306383572747498e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920396</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>250.9858676618298</v>
+        <v>250.9858676618297</v>
       </c>
       <c r="K4" t="n">
-        <v>12.7280123396763</v>
+        <v>12.7280123396764</v>
       </c>
       <c r="L4" t="n">
-        <v>278.401076724657</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>276.6318038428676</v>
       </c>
       <c r="I2" t="n">
-        <v>117.0047334082889</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>153.7714094203873</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.4825304253033</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>54.77308681279702</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>19.61575307735292</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>52.69003384578023</v>
+        <v>108.1508991993933</v>
       </c>
       <c r="T3" t="n">
         <v>194.9359795772607</v>
@@ -27518,7 +27518,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.7091154990898758</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27537,10 +27537,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9034249120584</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.5578247930797</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>16.46908075616486</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>128.3929887235663</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>286.2597082048691</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>219.7048845191594</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619745</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>152.7039266531025</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032233</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>191.3468959595999</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545475</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>57.21613438642676</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>120.559566094925</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.75155583990744</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>59.80729518135263</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>124.3422193494289</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>127.0360297897979</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27947,7 +27947,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27980,16 +27980,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>3.407474386499274</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>161.7773148361705</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>52.46207495470977</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
         <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>161.5448794334033</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>7.034373084024991e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.034373084024992e-14</v>
+        <v>7.034373084024991e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="29">
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31042,40 +31042,40 @@
         <v>2.42451607968658</v>
       </c>
       <c r="H2" t="n">
-        <v>24.8300753010902</v>
+        <v>24.83007530109019</v>
       </c>
       <c r="I2" t="n">
-        <v>93.47115616211697</v>
+        <v>93.47115616211696</v>
       </c>
       <c r="J2" t="n">
-        <v>205.7777716182991</v>
+        <v>205.777771618299</v>
       </c>
       <c r="K2" t="n">
-        <v>308.4075372714321</v>
+        <v>308.407537271432</v>
       </c>
       <c r="L2" t="n">
         <v>382.6068212451403</v>
       </c>
       <c r="M2" t="n">
-        <v>425.7238090772665</v>
+        <v>425.7238090772664</v>
       </c>
       <c r="N2" t="n">
-        <v>432.6124653886761</v>
+        <v>432.612465388676</v>
       </c>
       <c r="O2" t="n">
-        <v>408.5036836212926</v>
+        <v>408.5036836212925</v>
       </c>
       <c r="P2" t="n">
-        <v>348.6484429040301</v>
+        <v>348.64844290403</v>
       </c>
       <c r="Q2" t="n">
-        <v>261.8204608002544</v>
+        <v>261.8204608002543</v>
       </c>
       <c r="R2" t="n">
         <v>152.2990081906123</v>
       </c>
       <c r="S2" t="n">
-        <v>55.248660165858</v>
+        <v>55.24866016585799</v>
       </c>
       <c r="T2" t="n">
         <v>10.61331913882801</v>
@@ -31133,10 +31133,10 @@
         <v>209.4742723190844</v>
       </c>
       <c r="L3" t="n">
-        <v>281.6640098638204</v>
+        <v>281.6640098638203</v>
       </c>
       <c r="M3" t="n">
-        <v>328.6886142780103</v>
+        <v>328.6886142780102</v>
       </c>
       <c r="N3" t="n">
         <v>337.3880238544527</v>
@@ -31145,22 +31145,22 @@
         <v>308.644127726142</v>
       </c>
       <c r="P3" t="n">
-        <v>247.7141230471874</v>
+        <v>247.7141230471873</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.5903311398168</v>
+        <v>165.5903311398167</v>
       </c>
       <c r="R3" t="n">
-        <v>80.54208107529021</v>
+        <v>80.5420810752902</v>
       </c>
       <c r="S3" t="n">
-        <v>24.09548695633327</v>
+        <v>24.09548695633326</v>
       </c>
       <c r="T3" t="n">
-        <v>5.228749117560868</v>
+        <v>5.228749117560867</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08534410964462795</v>
+        <v>0.08534410964462794</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,13 +31200,13 @@
         <v>1.087554446400395</v>
       </c>
       <c r="H4" t="n">
-        <v>9.669347714359882</v>
+        <v>9.66934771435988</v>
       </c>
       <c r="I4" t="n">
-        <v>32.70572826084098</v>
+        <v>32.70572826084097</v>
       </c>
       <c r="J4" t="n">
-        <v>76.89009936050792</v>
+        <v>76.8900993605079</v>
       </c>
       <c r="K4" t="n">
         <v>126.3540529545186</v>
@@ -31218,28 +31218,28 @@
         <v>170.4791029025637</v>
       </c>
       <c r="N4" t="n">
-        <v>166.4254908750715</v>
+        <v>166.4254908750714</v>
       </c>
       <c r="O4" t="n">
-        <v>153.7208775693941</v>
+        <v>153.720877569394</v>
       </c>
       <c r="P4" t="n">
         <v>131.5347668628259</v>
       </c>
       <c r="Q4" t="n">
-        <v>91.06785459812762</v>
+        <v>91.06785459812761</v>
       </c>
       <c r="R4" t="n">
-        <v>48.9004026536032</v>
+        <v>48.90040265360319</v>
       </c>
       <c r="S4" t="n">
         <v>18.95310794317778</v>
       </c>
       <c r="T4" t="n">
-        <v>4.646823543710777</v>
+        <v>4.646823543710776</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05932115162183979</v>
+        <v>0.05932115162183978</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,10 +32324,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9642309107746</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>338.1920576279218</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>338.1920576279218</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817571</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>338.6542681503479</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>366.8427442359099</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>301.6445156724557</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.7318670916128</v>
+        <v>24.73186709161274</v>
       </c>
       <c r="K2" t="n">
-        <v>88.31768622645154</v>
+        <v>88.31768622645149</v>
       </c>
       <c r="L2" t="n">
-        <v>146.8404062751531</v>
+        <v>146.840406275153</v>
       </c>
       <c r="M2" t="n">
-        <v>195.3775758499938</v>
+        <v>195.3775758499937</v>
       </c>
       <c r="N2" t="n">
-        <v>203.1994017920852</v>
+        <v>203.199401792085</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4054721996059</v>
+        <v>178.4054721996058</v>
       </c>
       <c r="P2" t="n">
-        <v>117.4154471487606</v>
+        <v>117.4154471487605</v>
       </c>
       <c r="Q2" t="n">
-        <v>39.51477092580487</v>
+        <v>39.51477092580481</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81.06311598533448</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>71.63283334472541</v>
+        <v>152.6959493300601</v>
       </c>
       <c r="L3" t="n">
-        <v>143.1096300839462</v>
+        <v>143.1096300839461</v>
       </c>
       <c r="M3" t="n">
-        <v>186.554580355992</v>
+        <v>186.5545803559919</v>
       </c>
       <c r="N3" t="n">
         <v>206.0463117711194</v>
       </c>
       <c r="O3" t="n">
-        <v>166.0478832816976</v>
+        <v>166.0478832816975</v>
       </c>
       <c r="P3" t="n">
         <v>113.7397156328571</v>
       </c>
       <c r="Q3" t="n">
-        <v>25.60855705379524</v>
+        <v>25.60855705379521</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>104.0845611286357</v>
+        <v>76.78294191536588</v>
       </c>
       <c r="L4" t="n">
         <v>189.279710864244</v>
@@ -34866,13 +34866,13 @@
         <v>210.0629798644043</v>
       </c>
       <c r="N4" t="n">
-        <v>210.5576632543001</v>
+        <v>210.5576632543</v>
       </c>
       <c r="O4" t="n">
-        <v>178.3060054834338</v>
+        <v>178.3060054834337</v>
       </c>
       <c r="P4" t="n">
-        <v>101.5117069144495</v>
+        <v>128.8133261277194</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>45.78351343583227</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763038</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015061</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649633</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>172.7419126813483</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
         <v>158.6780472169987</v>
@@ -35258,13 +35258,13 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>542.1149567261631</v>
+        <v>519.7112232632726</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="O9" t="n">
-        <v>355.5302920690251</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
         <v>216.6751672332329</v>
@@ -35273,7 +35273,7 @@
         <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>13.85280893410651</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,10 +35972,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O18" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>228.3679864663299</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549932</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919382</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919382</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>196.0580237059035</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>196.0580237059035</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>196.0580237059035</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>235.5010321525766</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>159.0482712280113</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
